--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>0.9336521131199998</v>
+        <v>0.09923836181666665</v>
       </c>
       <c r="R2">
-        <v>8.402869018079999</v>
+        <v>0.8931452563499999</v>
       </c>
       <c r="S2">
-        <v>0.0009411883328790872</v>
+        <v>0.0001317862228733973</v>
       </c>
       <c r="T2">
-        <v>0.0009416779784504801</v>
+        <v>0.0001322754495569273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>69.39691123577066</v>
+        <v>0.7429423482899999</v>
       </c>
       <c r="R3">
-        <v>624.572201121936</v>
+        <v>6.686481134609999</v>
       </c>
       <c r="S3">
-        <v>0.06995706674372207</v>
+        <v>0.0009866100578595769</v>
       </c>
       <c r="T3">
-        <v>0.06999346133842972</v>
+        <v>0.0009902726255849423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>0.3142703455306667</v>
+        <v>79.07727920995798</v>
       </c>
       <c r="R4">
-        <v>1.885622073184</v>
+        <v>711.6955128896218</v>
       </c>
       <c r="S4">
-        <v>0.0003168070616740799</v>
+        <v>0.1050127768275512</v>
       </c>
       <c r="T4">
-        <v>0.0002113145853132953</v>
+        <v>0.1054026131201124</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>130.8216153429244</v>
+        <v>0.6531764121084999</v>
       </c>
       <c r="R5">
-        <v>1177.39453808632</v>
+        <v>3.919058472650999</v>
       </c>
       <c r="S5">
-        <v>0.1318775765822435</v>
+        <v>0.0008674029946282333</v>
       </c>
       <c r="T5">
-        <v>0.1319461848183252</v>
+        <v>0.000580415355312205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.165077</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>3.495231</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2442159578816452</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2442159578816452</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>1.12270314951</v>
+        <v>66.86585834101398</v>
       </c>
       <c r="R6">
-        <v>10.10432834559</v>
+        <v>601.7927250691259</v>
       </c>
       <c r="S6">
-        <v>0.001131765344668165</v>
+        <v>0.0887962955921139</v>
       </c>
       <c r="T6">
-        <v>0.001132354136379148</v>
+        <v>0.08912593184888719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>83.44878109931699</v>
+        <v>0.14996482785</v>
       </c>
       <c r="R7">
-        <v>751.039029893853</v>
+        <v>1.34968345065</v>
       </c>
       <c r="S7">
-        <v>0.08412235998823618</v>
+        <v>0.0001991497830518561</v>
       </c>
       <c r="T7">
-        <v>0.08416612396148621</v>
+        <v>0.0001998890817870643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>0.377905540797</v>
+        <v>1.12270314951</v>
       </c>
       <c r="R8">
-        <v>2.267433244782</v>
+        <v>10.10432834559</v>
       </c>
       <c r="S8">
-        <v>0.0003809559052353193</v>
+        <v>0.001490923517614347</v>
       </c>
       <c r="T8">
-        <v>0.0002541027296300286</v>
+        <v>0.001496458235523518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,42 +992,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>157.311098540415</v>
+        <v>119.498249935602</v>
       </c>
       <c r="R9">
-        <v>1415.799886863735</v>
+        <v>1075.484249420418</v>
       </c>
       <c r="S9">
-        <v>0.1585808766435055</v>
+        <v>0.1586908803279876</v>
       </c>
       <c r="T9">
-        <v>0.1586633770541498</v>
+        <v>0.1592799844953017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.360828666666666</v>
+        <v>1.165077</v>
       </c>
       <c r="H10">
-        <v>4.082485999999999</v>
+        <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2852481650078081</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2852481650078081</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>1.31133532806</v>
+        <v>0.9870526518614999</v>
       </c>
       <c r="R10">
-        <v>11.80201795254</v>
+        <v>5.922315911169</v>
       </c>
       <c r="S10">
-        <v>0.001321920117695499</v>
+        <v>0.00131078283019532</v>
       </c>
       <c r="T10">
-        <v>0.001322607835879792</v>
+        <v>0.0008770992109048813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.360828666666666</v>
+        <v>1.165077</v>
       </c>
       <c r="H11">
-        <v>4.082485999999999</v>
+        <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2852481650078081</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2852481650078081</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>97.46951791026865</v>
+        <v>101.044865630466</v>
       </c>
       <c r="R11">
-        <v>877.2256611924179</v>
+        <v>909.4037906741939</v>
       </c>
       <c r="S11">
-        <v>0.09825626888149434</v>
+        <v>0.1341852176761009</v>
       </c>
       <c r="T11">
-        <v>0.09830738590583339</v>
+        <v>0.1346833500877528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>0.4413997471486666</v>
+        <v>0.1550456179277778</v>
       </c>
       <c r="R12">
-        <v>2.648398482892</v>
+        <v>1.39541056135</v>
       </c>
       <c r="S12">
-        <v>0.0004449626218526094</v>
+        <v>0.0002058969534132528</v>
       </c>
       <c r="T12">
-        <v>0.000296796073357205</v>
+        <v>0.0002066612994994446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,42 +1240,42 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>183.7418921484344</v>
+        <v>1.16074019529</v>
       </c>
       <c r="R13">
-        <v>1653.67702933591</v>
+        <v>10.44666175761</v>
       </c>
       <c r="S13">
-        <v>0.1852250133867657</v>
+        <v>0.001541435824557396</v>
       </c>
       <c r="T13">
-        <v>0.1853213751927377</v>
+        <v>0.001547158058034311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.275887</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>3.827661</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.267443238390028</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.267443238390028</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,43 +1302,43 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>1.22948298981</v>
+        <v>123.546836069358</v>
       </c>
       <c r="R14">
-        <v>11.06534690829</v>
+        <v>1111.921524624222</v>
       </c>
       <c r="S14">
-        <v>0.001239407086666917</v>
+        <v>0.1640673079994862</v>
       </c>
       <c r="T14">
-        <v>0.001240051878118254</v>
+        <v>0.1646763709441415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,61 +1346,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.275887</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>3.827661</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.267443238390028</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.267443238390028</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>91.38556075732699</v>
+        <v>1.020493875325167</v>
       </c>
       <c r="R15">
-        <v>822.470046815943</v>
+        <v>6.122963251951001</v>
       </c>
       <c r="S15">
-        <v>0.09212320346063883</v>
+        <v>0.001355191992618653</v>
       </c>
       <c r="T15">
-        <v>0.09217112980759963</v>
+        <v>0.0009068152251989107</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.275887</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>3.827661</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.267443238390028</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.267443238390028</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>0.413847983207</v>
+        <v>104.4682533545473</v>
       </c>
       <c r="R16">
-        <v>2.483087899242</v>
+        <v>940.214280190926</v>
       </c>
       <c r="S16">
-        <v>0.0004171884665674251</v>
+        <v>0.1387313964856756</v>
       </c>
       <c r="T16">
-        <v>0.0002782703369815629</v>
+        <v>0.1392464055626819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0262855</v>
+      </c>
+      <c r="H17">
+        <v>0.052571</v>
+      </c>
+      <c r="I17">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J17">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.38615</v>
+      </c>
+      <c r="O17">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P17">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q17">
+        <v>0.003383381941666667</v>
+      </c>
+      <c r="R17">
+        <v>0.02030029165</v>
+      </c>
+      <c r="S17">
+        <v>4.493052066438152E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.00648767381262E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0262855</v>
+      </c>
+      <c r="H18">
+        <v>0.052571</v>
+      </c>
+      <c r="I18">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J18">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P18">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q18">
+        <v>0.025329496365</v>
+      </c>
+      <c r="R18">
+        <v>0.15197697819</v>
+      </c>
+      <c r="S18">
+        <v>3.363697860506381E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.250789887698605E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0262855</v>
+      </c>
+      <c r="H19">
+        <v>0.052571</v>
+      </c>
+      <c r="I19">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J19">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>102.566826</v>
+      </c>
+      <c r="N19">
+        <v>307.700478</v>
+      </c>
+      <c r="O19">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P19">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q19">
+        <v>2.696020304823</v>
+      </c>
+      <c r="R19">
+        <v>16.176121828938</v>
+      </c>
+      <c r="S19">
+        <v>0.003580251893103475</v>
+      </c>
+      <c r="T19">
+        <v>0.002395695181492298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0262855</v>
+      </c>
+      <c r="H20">
+        <v>0.052571</v>
+      </c>
+      <c r="I20">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J20">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.8471995</v>
+      </c>
+      <c r="N20">
+        <v>1.694399</v>
+      </c>
+      <c r="O20">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P20">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q20">
+        <v>0.02226906245725</v>
+      </c>
+      <c r="R20">
+        <v>0.089076249829</v>
+      </c>
+      <c r="S20">
+        <v>2.95727939725006E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.319225613885907E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N21">
+        <v>260.184174</v>
+      </c>
+      <c r="O21">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P21">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q21">
+        <v>2.279690368559</v>
+      </c>
+      <c r="R21">
+        <v>13.678142211354</v>
+      </c>
+      <c r="S21">
+        <v>0.003027375477522215</v>
+      </c>
+      <c r="T21">
+        <v>0.002025742618288535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.38615</v>
+      </c>
+      <c r="O22">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P22">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q22">
+        <v>0.09921643707777779</v>
+      </c>
+      <c r="R22">
+        <v>0.8929479337</v>
+      </c>
+      <c r="S22">
+        <v>0.0001317571073330684</v>
+      </c>
+      <c r="T22">
+        <v>0.0001322462259317096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.89089</v>
+      </c>
+      <c r="O23">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P23">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q23">
+        <v>0.7427782099800001</v>
+      </c>
+      <c r="R23">
+        <v>6.685003889820001</v>
+      </c>
+      <c r="S23">
+        <v>0.0009863920860238098</v>
+      </c>
+      <c r="T23">
+        <v>0.0009900538445778068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>102.566826</v>
+      </c>
+      <c r="N24">
+        <v>307.700478</v>
+      </c>
+      <c r="O24">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P24">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q24">
+        <v>79.05980866059599</v>
+      </c>
+      <c r="R24">
+        <v>711.538277945364</v>
+      </c>
+      <c r="S24">
+        <v>0.104989576346711</v>
+      </c>
+      <c r="T24">
+        <v>0.1053793265127102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.275887</v>
-      </c>
-      <c r="H17">
-        <v>3.827661</v>
-      </c>
-      <c r="I17">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J17">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>135.0220616666667</v>
-      </c>
-      <c r="N17">
-        <v>405.066185</v>
-      </c>
-      <c r="O17">
-        <v>0.6493469059886695</v>
-      </c>
-      <c r="P17">
-        <v>0.6496847234325412</v>
-      </c>
-      <c r="Q17">
-        <v>172.2728931936983</v>
-      </c>
-      <c r="R17">
-        <v>1550.456038743285</v>
-      </c>
-      <c r="S17">
-        <v>0.1736634393761549</v>
-      </c>
-      <c r="T17">
-        <v>0.1737537863673285</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.8471995</v>
+      </c>
+      <c r="N25">
+        <v>1.694399</v>
+      </c>
+      <c r="O25">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P25">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q25">
+        <v>0.6530321057936667</v>
+      </c>
+      <c r="R25">
+        <v>3.918192634762</v>
+      </c>
+      <c r="S25">
+        <v>0.0008672113592180904</v>
+      </c>
+      <c r="T25">
+        <v>0.0005802871241032316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N26">
+        <v>260.184174</v>
+      </c>
+      <c r="O26">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P26">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q26">
+        <v>66.85108566180133</v>
+      </c>
+      <c r="R26">
+        <v>601.659770956212</v>
+      </c>
+      <c r="S26">
+        <v>0.08877667781971704</v>
+      </c>
+      <c r="T26">
+        <v>0.08910624124992685</v>
       </c>
     </row>
   </sheetData>
